--- a/team_specific_matrix/Southern Miss._B.xlsx
+++ b/team_specific_matrix/Southern Miss._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="C2">
-        <v>0.5423076923076923</v>
+        <v>0.5536912751677853</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03461538461538462</v>
+        <v>0.0302013422818792</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1153846153846154</v>
+        <v>0.1208053691275168</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1076923076923077</v>
+        <v>0.1006711409395973</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.02097902097902098</v>
+        <v>0.01744186046511628</v>
       </c>
       <c r="C3">
-        <v>0.02097902097902098</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02797202797202797</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6713286713286714</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2587412587412588</v>
+        <v>0.2616279069767442</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.4666666666666667</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.4333333333333333</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08379888268156424</v>
+        <v>0.07798165137614679</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01675977653631285</v>
+        <v>0.01376146788990826</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.03910614525139665</v>
+        <v>0.03211009174311927</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2290502793296089</v>
+        <v>0.2431192660550459</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0223463687150838</v>
+        <v>0.01834862385321101</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2122905027932961</v>
+        <v>0.2064220183486239</v>
       </c>
       <c r="R6">
-        <v>0.05586592178770949</v>
+        <v>0.05963302752293578</v>
       </c>
       <c r="S6">
-        <v>0.3407821229050279</v>
+        <v>0.3486238532110092</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1475409836065574</v>
+        <v>0.1421800947867299</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01092896174863388</v>
+        <v>0.009478672985781991</v>
       </c>
       <c r="E7">
-        <v>0.00546448087431694</v>
+        <v>0.004739336492890996</v>
       </c>
       <c r="F7">
-        <v>0.07103825136612021</v>
+        <v>0.07109004739336493</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1420765027322404</v>
+        <v>0.1421800947867299</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01092896174863388</v>
+        <v>0.01895734597156398</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1912568306010929</v>
+        <v>0.1753554502369668</v>
       </c>
       <c r="R7">
-        <v>0.08196721311475409</v>
+        <v>0.07582938388625593</v>
       </c>
       <c r="S7">
-        <v>0.3387978142076503</v>
+        <v>0.3601895734597156</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.101123595505618</v>
+        <v>0.0951276102088167</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.005617977528089887</v>
+        <v>0.009280742459396751</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06741573033707865</v>
+        <v>0.06496519721577726</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1404494382022472</v>
+        <v>0.1276102088167053</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02528089887640449</v>
+        <v>0.02320185614849188</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1629213483146068</v>
+        <v>0.1531322505800464</v>
       </c>
       <c r="R8">
-        <v>0.08426966292134831</v>
+        <v>0.08120649651972157</v>
       </c>
       <c r="S8">
-        <v>0.4129213483146068</v>
+        <v>0.4454756380510441</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.06329113924050633</v>
+        <v>0.05813953488372093</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01265822784810127</v>
+        <v>0.01162790697674419</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.08860759493670886</v>
+        <v>0.0872093023255814</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08860759493670886</v>
+        <v>0.08139534883720931</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.0189873417721519</v>
+        <v>0.01744186046511628</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2468354430379747</v>
+        <v>0.2325581395348837</v>
       </c>
       <c r="R9">
-        <v>0.06962025316455696</v>
+        <v>0.0755813953488372</v>
       </c>
       <c r="S9">
-        <v>0.4113924050632912</v>
+        <v>0.436046511627907</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1053587647593097</v>
+        <v>0.1055900621118012</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02089009990917348</v>
+        <v>0.02018633540372671</v>
       </c>
       <c r="E10">
-        <v>0.0009082652134423251</v>
+        <v>0.0007763975155279503</v>
       </c>
       <c r="F10">
-        <v>0.06539509536784741</v>
+        <v>0.06909937888198758</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1335149863760218</v>
+        <v>0.1234472049689441</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01180744777475023</v>
+        <v>0.01475155279503106</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1998183469573115</v>
+        <v>0.1940993788819876</v>
       </c>
       <c r="R10">
-        <v>0.09355131698455948</v>
+        <v>0.09006211180124224</v>
       </c>
       <c r="S10">
-        <v>0.368755676657584</v>
+        <v>0.3819875776397516</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.154639175257732</v>
+        <v>0.163323782234957</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08247422680412371</v>
+        <v>0.0830945558739255</v>
       </c>
       <c r="K11">
-        <v>0.1890034364261168</v>
+        <v>0.2063037249283668</v>
       </c>
       <c r="L11">
-        <v>0.5670103092783505</v>
+        <v>0.5358166189111748</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.006872852233676976</v>
+        <v>0.01146131805157593</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7</v>
+        <v>0.6770833333333334</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2235294117647059</v>
+        <v>0.2447916666666667</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.005208333333333333</v>
       </c>
       <c r="L12">
-        <v>0.04117647058823529</v>
+        <v>0.03645833333333334</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03529411764705882</v>
+        <v>0.03645833333333334</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7586206896551724</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1379310344827586</v>
+        <v>0.1142857142857143</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.103448275862069</v>
+        <v>0.1142857142857143</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02531645569620253</v>
+        <v>0.0374331550802139</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1708860759493671</v>
+        <v>0.1657754010695187</v>
       </c>
       <c r="I15">
-        <v>0.0759493670886076</v>
+        <v>0.06417112299465241</v>
       </c>
       <c r="J15">
-        <v>0.3481012658227848</v>
+        <v>0.3422459893048128</v>
       </c>
       <c r="K15">
-        <v>0.1012658227848101</v>
+        <v>0.09625668449197861</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01265822784810127</v>
+        <v>0.0106951871657754</v>
       </c>
       <c r="N15">
-        <v>0.006329113924050633</v>
+        <v>0.0053475935828877</v>
       </c>
       <c r="O15">
-        <v>0.03164556962025317</v>
+        <v>0.03208556149732621</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2278481012658228</v>
+        <v>0.2459893048128342</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0218978102189781</v>
+        <v>0.01796407185628742</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1751824817518248</v>
+        <v>0.1736526946107785</v>
       </c>
       <c r="I16">
-        <v>0.06569343065693431</v>
+        <v>0.05389221556886228</v>
       </c>
       <c r="J16">
-        <v>0.3722627737226277</v>
+        <v>0.4011976047904192</v>
       </c>
       <c r="K16">
-        <v>0.1313868613138686</v>
+        <v>0.1377245508982036</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.0364963503649635</v>
+        <v>0.03592814371257485</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1970802919708029</v>
+        <v>0.1796407185628743</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01818181818181818</v>
+        <v>0.02097902097902098</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1688311688311688</v>
+        <v>0.1678321678321678</v>
       </c>
       <c r="I17">
-        <v>0.09610389610389611</v>
+        <v>0.09557109557109557</v>
       </c>
       <c r="J17">
-        <v>0.4311688311688311</v>
+        <v>0.4242424242424243</v>
       </c>
       <c r="K17">
-        <v>0.1298701298701299</v>
+        <v>0.1258741258741259</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01298701298701299</v>
+        <v>0.01398601398601399</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.002331002331002331</v>
       </c>
       <c r="O17">
-        <v>0.04415584415584416</v>
+        <v>0.04662004662004662</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09870129870129871</v>
+        <v>0.1025641025641026</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01775147928994083</v>
+        <v>0.0155440414507772</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1715976331360947</v>
+        <v>0.1813471502590674</v>
       </c>
       <c r="I18">
-        <v>0.136094674556213</v>
+        <v>0.1191709844559585</v>
       </c>
       <c r="J18">
-        <v>0.4556213017751479</v>
+        <v>0.461139896373057</v>
       </c>
       <c r="K18">
-        <v>0.05325443786982249</v>
+        <v>0.06217616580310881</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.005917159763313609</v>
+        <v>0.005181347150259068</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.0650887573964497</v>
+        <v>0.05699481865284974</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09467455621301775</v>
+        <v>0.09844559585492228</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.009398496240601503</v>
+        <v>0.01226993865030675</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.200187969924812</v>
+        <v>0.2032208588957055</v>
       </c>
       <c r="I19">
-        <v>0.07236842105263158</v>
+        <v>0.06671779141104295</v>
       </c>
       <c r="J19">
-        <v>0.3825187969924812</v>
+        <v>0.3826687116564417</v>
       </c>
       <c r="K19">
-        <v>0.1306390977443609</v>
+        <v>0.1273006134969325</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01973684210526316</v>
+        <v>0.01993865030674847</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.06296992481203008</v>
+        <v>0.06058282208588957</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1221804511278195</v>
+        <v>0.1273006134969325</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Southern Miss._B.xlsx
+++ b/team_specific_matrix/Southern Miss._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1946308724832215</v>
+        <v>0.1975308641975309</v>
       </c>
       <c r="C2">
-        <v>0.5536912751677853</v>
+        <v>0.5462962962962963</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0302013422818792</v>
+        <v>0.0308641975308642</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1208053691275168</v>
+        <v>0.1234567901234568</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1006711409395973</v>
+        <v>0.1018518518518518</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01744186046511628</v>
+        <v>0.01630434782608696</v>
       </c>
       <c r="C3">
-        <v>0.02325581395348837</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02325581395348837</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6744186046511628</v>
+        <v>0.6902173913043478</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2616279069767442</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08571428571428572</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5142857142857142</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.4</v>
+        <v>0.358974358974359</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07798165137614679</v>
+        <v>0.07818930041152264</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01376146788990826</v>
+        <v>0.01234567901234568</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.03211009174311927</v>
+        <v>0.02880658436213992</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2431192660550459</v>
+        <v>0.2345679012345679</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01834862385321101</v>
+        <v>0.01646090534979424</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2064220183486239</v>
+        <v>0.205761316872428</v>
       </c>
       <c r="R6">
-        <v>0.05963302752293578</v>
+        <v>0.06584362139917696</v>
       </c>
       <c r="S6">
-        <v>0.3486238532110092</v>
+        <v>0.3580246913580247</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1421800947867299</v>
+        <v>0.1341991341991342</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.009478672985781991</v>
+        <v>0.008658008658008658</v>
       </c>
       <c r="E7">
-        <v>0.004739336492890996</v>
+        <v>0.008658008658008658</v>
       </c>
       <c r="F7">
-        <v>0.07109004739336493</v>
+        <v>0.0735930735930736</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1421800947867299</v>
+        <v>0.1385281385281385</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01895734597156398</v>
+        <v>0.01731601731601732</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1753554502369668</v>
+        <v>0.1731601731601732</v>
       </c>
       <c r="R7">
-        <v>0.07582938388625593</v>
+        <v>0.07792207792207792</v>
       </c>
       <c r="S7">
-        <v>0.3601895734597156</v>
+        <v>0.3679653679653679</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0951276102088167</v>
+        <v>0.09387755102040816</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.009280742459396751</v>
+        <v>0.00816326530612245</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06496519721577726</v>
+        <v>0.07346938775510205</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1276102088167053</v>
+        <v>0.1204081632653061</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02320185614849188</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1531322505800464</v>
+        <v>0.1530612244897959</v>
       </c>
       <c r="R8">
-        <v>0.08120649651972157</v>
+        <v>0.08163265306122448</v>
       </c>
       <c r="S8">
-        <v>0.4454756380510441</v>
+        <v>0.4489795918367347</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.05813953488372093</v>
+        <v>0.05913978494623656</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01162790697674419</v>
+        <v>0.01075268817204301</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.0872093023255814</v>
+        <v>0.08602150537634409</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08139534883720931</v>
+        <v>0.08064516129032258</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01744186046511628</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2325581395348837</v>
+        <v>0.2419354838709677</v>
       </c>
       <c r="R9">
-        <v>0.0755813953488372</v>
+        <v>0.07526881720430108</v>
       </c>
       <c r="S9">
-        <v>0.436046511627907</v>
+        <v>0.4301075268817204</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1055900621118012</v>
+        <v>0.1029207232267038</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02018633540372671</v>
+        <v>0.02086230876216968</v>
       </c>
       <c r="E10">
-        <v>0.0007763975155279503</v>
+        <v>0.0006954102920723226</v>
       </c>
       <c r="F10">
-        <v>0.06909937888198758</v>
+        <v>0.06954102920723226</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1234472049689441</v>
+        <v>0.1230876216968011</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01475155279503106</v>
+        <v>0.01460361613351878</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1940993788819876</v>
+        <v>0.1974965229485396</v>
       </c>
       <c r="R10">
-        <v>0.09006211180124224</v>
+        <v>0.08762169680111266</v>
       </c>
       <c r="S10">
-        <v>0.3819875776397516</v>
+        <v>0.3831710709318498</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.163323782234957</v>
+        <v>0.1640625</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0830945558739255</v>
+        <v>0.08072916666666667</v>
       </c>
       <c r="K11">
-        <v>0.2063037249283668</v>
+        <v>0.2057291666666667</v>
       </c>
       <c r="L11">
-        <v>0.5358166189111748</v>
+        <v>0.5364583333333334</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01146131805157593</v>
+        <v>0.01302083333333333</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6770833333333334</v>
+        <v>0.6698564593301436</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2447916666666667</v>
+        <v>0.2583732057416268</v>
       </c>
       <c r="K12">
-        <v>0.005208333333333333</v>
+        <v>0.004784688995215311</v>
       </c>
       <c r="L12">
-        <v>0.03645833333333334</v>
+        <v>0.03349282296650718</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03645833333333334</v>
+        <v>0.03349282296650718</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7714285714285715</v>
+        <v>0.7560975609756098</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1142857142857143</v>
+        <v>0.1463414634146341</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1142857142857143</v>
+        <v>0.0975609756097561</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0374331550802139</v>
+        <v>0.03381642512077294</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1657754010695187</v>
+        <v>0.178743961352657</v>
       </c>
       <c r="I15">
-        <v>0.06417112299465241</v>
+        <v>0.06280193236714976</v>
       </c>
       <c r="J15">
-        <v>0.3422459893048128</v>
+        <v>0.3381642512077295</v>
       </c>
       <c r="K15">
-        <v>0.09625668449197861</v>
+        <v>0.0966183574879227</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.0106951871657754</v>
+        <v>0.02415458937198068</v>
       </c>
       <c r="N15">
-        <v>0.0053475935828877</v>
+        <v>0.004830917874396135</v>
       </c>
       <c r="O15">
-        <v>0.03208556149732621</v>
+        <v>0.03381642512077294</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2459893048128342</v>
+        <v>0.2270531400966184</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01796407185628742</v>
+        <v>0.01630434782608696</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1736526946107785</v>
+        <v>0.1847826086956522</v>
       </c>
       <c r="I16">
-        <v>0.05389221556886228</v>
+        <v>0.04891304347826087</v>
       </c>
       <c r="J16">
-        <v>0.4011976047904192</v>
+        <v>0.4130434782608696</v>
       </c>
       <c r="K16">
-        <v>0.1377245508982036</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.03592814371257485</v>
+        <v>0.03260869565217391</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1796407185628743</v>
+        <v>0.1739130434782609</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02097902097902098</v>
+        <v>0.01855670103092784</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1678321678321678</v>
+        <v>0.1731958762886598</v>
       </c>
       <c r="I17">
-        <v>0.09557109557109557</v>
+        <v>0.08865979381443299</v>
       </c>
       <c r="J17">
-        <v>0.4242424242424243</v>
+        <v>0.4309278350515464</v>
       </c>
       <c r="K17">
-        <v>0.1258741258741259</v>
+        <v>0.1195876288659794</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01398601398601399</v>
+        <v>0.01237113402061856</v>
       </c>
       <c r="N17">
-        <v>0.002331002331002331</v>
+        <v>0.002061855670103093</v>
       </c>
       <c r="O17">
-        <v>0.04662004662004662</v>
+        <v>0.04329896907216495</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1025641025641026</v>
+        <v>0.111340206185567</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0155440414507772</v>
+        <v>0.01401869158878505</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1813471502590674</v>
+        <v>0.1775700934579439</v>
       </c>
       <c r="I18">
-        <v>0.1191709844559585</v>
+        <v>0.1168224299065421</v>
       </c>
       <c r="J18">
-        <v>0.461139896373057</v>
+        <v>0.4532710280373832</v>
       </c>
       <c r="K18">
-        <v>0.06217616580310881</v>
+        <v>0.07009345794392523</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.005181347150259068</v>
+        <v>0.004672897196261682</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05699481865284974</v>
+        <v>0.06074766355140187</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09844559585492228</v>
+        <v>0.102803738317757</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01226993865030675</v>
+        <v>0.01101169993117687</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2032208588957055</v>
+        <v>0.2050929112181693</v>
       </c>
       <c r="I19">
-        <v>0.06671779141104295</v>
+        <v>0.06607019958706126</v>
       </c>
       <c r="J19">
-        <v>0.3826687116564417</v>
+        <v>0.3840330350997935</v>
       </c>
       <c r="K19">
-        <v>0.1273006134969325</v>
+        <v>0.1266345492085341</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01993865030674847</v>
+        <v>0.01995870612525809</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.06058282208588957</v>
+        <v>0.06194081211286993</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1273006134969325</v>
+        <v>0.125258086717137</v>
       </c>
     </row>
   </sheetData>
